--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671675.061832506</v>
+        <v>2665953.449864621</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>136.0838294374588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>28.5103304121437</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.69402002676107</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>302.4733176557425</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>38.62696934196128</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>48.26767095054647</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>228.8014059867508</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>150.8400357509153</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>153.8100533453331</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.17579562641271</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>130.5765049275817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>43.35869565552218</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.4179473152587</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>153.9797640699935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>71.79135937993097</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>25.01141625626346</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.3480787209746</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2289,25 +2289,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>147.7409512249758</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>123.2840871772261</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2611,7 +2611,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>86.14257700143705</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>105.637063089987</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>125.8870582755872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396208</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.88665181956718</v>
       </c>
       <c r="H37" t="n">
-        <v>117.4128986855874</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>95.51687882217782</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.3123746450493</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>126.5660981224321</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756504</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>126.6162780101521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.321187657107</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>229.6312428658947</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>82.74129536798435</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>603.0615397804995</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>388.7731165986622</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>388.7731165986622</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1620.08070321196</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1251.118186271549</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.118186271549</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1251.118186271549</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>840.1322814819412</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2426.92577311343</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2095.862885769859</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1743.094230499745</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1369.628472238665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.08070321196</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2219.631405396916</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>2170.876182214546</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>2170.876182214546</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>2022.963088632153</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>2440.423984540446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>2440.423984540446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>2440.423984540446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>2440.423984540446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>2440.423984540446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>2219.631405396916</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1095.753074569374</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1095.753074569374</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
         <v>864.6405432696254</v>
@@ -4792,7 +4792,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1095.753074569374</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>683.5069684221791</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>683.5069684221791</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>683.5069684221791</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>428.8224802162921</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>428.8224802162921</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>507.3364050629045</v>
       </c>
     </row>
     <row r="11">
@@ -5023,46 +5023,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>936.9421277731541</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C13" t="n">
-        <v>768.0059448452472</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D13" t="n">
-        <v>617.8893054329114</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1385.724257814702</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W13" t="n">
-        <v>1385.724257814702</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X13" t="n">
-        <v>1157.734706916684</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.9421277731541</v>
+        <v>727.0030950818858</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5287,16 +5287,16 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.4103109586945</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1297.525394036369</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1042.840905830482</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.840905830482</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X16" t="n">
-        <v>814.8513549324643</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.0587757889342</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1605.62090185774</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2584.171204687568</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3130.950021746351</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.6776738607302</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="C19" t="n">
-        <v>245.6776738607302</v>
+        <v>726.2132071615756</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1931.079409280195</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1931.079409280195</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1709.312793849721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1420.209926975365</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1165.525438769478</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W19" t="n">
-        <v>876.1082687325173</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X19" t="n">
-        <v>648.1187178345</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y19" t="n">
-        <v>427.3261386909699</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="20">
@@ -5752,40 +5752,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>354.7307713949787</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1009.454103530278</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1460.488316778687</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2439.038619608516</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>2985.817436667298</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3845.045177591381</v>
+        <v>725.3071882816349</v>
       </c>
       <c r="C22" t="n">
-        <v>3676.108994663474</v>
+        <v>556.371005353728</v>
       </c>
       <c r="D22" t="n">
-        <v>3525.992355251139</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E22" t="n">
-        <v>3378.079261668745</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F22" t="n">
-        <v>3231.189314170835</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>3063.486477545554</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4466.454649746775</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>4466.454649746775</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>4211.770161540888</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W22" t="n">
-        <v>4211.770161540888</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X22" t="n">
-        <v>3983.780610642871</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y22" t="n">
-        <v>3983.780610642871</v>
+        <v>725.3071882816349</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1153.952538678958</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>1687.484443350883</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.1255161526733</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>782.1255161526733</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>632.0088767403375</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>632.0088767403375</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>485.1189292424272</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>317.4160926171461</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.556111024461</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.566560126443</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.773980982913</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2903.481887689699</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3698.155230093471</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>3529.219047165564</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>3379.102407753228</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>4691.039018377865</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>4436.354530171979</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>4146.937360135018</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>3918.947809237001</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>3698.155230093471</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.2948715744233</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C31" t="n">
-        <v>500.2948715744233</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D31" t="n">
-        <v>350.1782321620875</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>202.2651385796944</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>202.2651385796944</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V31" t="n">
-        <v>1420.142636483171</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W31" t="n">
-        <v>1130.72546644621</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X31" t="n">
-        <v>902.7359155481931</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y31" t="n">
-        <v>681.943336404663</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>301.7164587107642</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>956.4397908460637</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1407.474004094473</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>1941.005908766397</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.758180993044</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.722831322499</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258584</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V34" t="n">
-        <v>1453.060509258584</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W34" t="n">
-        <v>1325.901864535769</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X34" t="n">
-        <v>1097.912313637752</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y34" t="n">
-        <v>877.1197344942216</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="35">
@@ -6913,58 +6913,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N35" t="n">
-        <v>3070.887536710053</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.2127443498364</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C37" t="n">
-        <v>364.2765614219295</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D37" t="n">
-        <v>214.1599220095938</v>
+        <v>523.2661352466724</v>
       </c>
       <c r="E37" t="n">
-        <v>214.1599220095938</v>
+        <v>375.3530416642793</v>
       </c>
       <c r="F37" t="n">
-        <v>214.1599220095938</v>
+        <v>375.3530416642793</v>
       </c>
       <c r="G37" t="n">
-        <v>214.1599220095938</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258584</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.060509258584</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.643339221624</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>935.6537883236062</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>714.8612091800761</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3795.480907275125</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C40" t="n">
-        <v>3626.544724347219</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D40" t="n">
-        <v>3476.428084934883</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E40" t="n">
-        <v>3328.51499135249</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4681.570026639743</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4459.803411209269</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>4459.803411209269</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>4205.118923003382</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>4205.118923003382</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>3977.129372105365</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>3977.129372105365</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U43" t="n">
-        <v>1866.513008862232</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V43" t="n">
-        <v>1611.828520656345</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W43" t="n">
-        <v>1611.828520656345</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X43" t="n">
-        <v>1383.838969758327</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y43" t="n">
-        <v>1163.046390614797</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,43 +7633,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>3082.932479700092</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>972.7495048756253</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="C46" t="n">
-        <v>803.8133219477185</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="D46" t="n">
-        <v>653.6966825353827</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1644.746393431758</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1390.061905225871</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W46" t="n">
-        <v>1100.64473518891</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X46" t="n">
-        <v>972.7495048756253</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y46" t="n">
-        <v>972.7495048756253</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>198.7154374299954</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>48.50256772349326</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>372.647980294658</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.00061210864527</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>85.5139255891749</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>231.5010718068644</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>142.1686942807567</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>283.3156027685499</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>17.45080131650943</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>297.8289162490798</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>119.6706498956044</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>251.1867816683983</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>241.9338129178262</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>173.2204606877384</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>15.85745771898746</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>175.2259576965726</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>43.60786094376952</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>132.2320741356194</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>76.82411363828139</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.92073641378387</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.4839014609627</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>70.843702127119</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>21.47092773709473</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>200.0692612041758</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>60.38874516904126</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>160.6359400610039</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>130.139156439461</v>
       </c>
       <c r="H37" t="n">
-        <v>27.34211622873343</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>94.25214650926408</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.51960553688795</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>159.6457400831808</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.19598621064732</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>99.09337737888504</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="F2" t="n">
         <v>615476.7696748241</v>
       </c>
       <c r="G2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="H2" t="n">
         <v>615476.7696748242</v>
       </c>
       <c r="I2" t="n">
+        <v>615476.7696748237</v>
+      </c>
+      <c r="J2" t="n">
         <v>615476.7696748239</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>615476.7696748241</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615476.7696748243</v>
+      </c>
+      <c r="N2" t="n">
         <v>615476.7696748236</v>
       </c>
-      <c r="K2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748241</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>615476.7696748237</v>
       </c>
-      <c r="O2" t="n">
-        <v>615476.769674824</v>
-      </c>
       <c r="P2" t="n">
-        <v>615476.7696748242</v>
+        <v>615476.7696748239</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
@@ -26435,31 +26435,31 @@
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="M4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.2724902622</v>
+        <v>-219868.2724902621</v>
       </c>
       <c r="C6" t="n">
-        <v>370099.6067242821</v>
+        <v>370099.6067242824</v>
       </c>
       <c r="D6" t="n">
-        <v>370099.606724282</v>
+        <v>370099.6067242824</v>
       </c>
       <c r="E6" t="n">
-        <v>-226432.6548914862</v>
+        <v>-227104.6097937443</v>
       </c>
       <c r="F6" t="n">
-        <v>500944.7591019205</v>
+        <v>500272.8041996625</v>
       </c>
       <c r="G6" t="n">
-        <v>500944.7591019204</v>
+        <v>500272.8041996621</v>
       </c>
       <c r="H6" t="n">
-        <v>500944.7591019206</v>
+        <v>500272.8041996626</v>
       </c>
       <c r="I6" t="n">
-        <v>500944.7591019202</v>
+        <v>500272.8041996622</v>
       </c>
       <c r="J6" t="n">
-        <v>324521.5399093271</v>
+        <v>323849.5850070695</v>
       </c>
       <c r="K6" t="n">
-        <v>500944.75910192</v>
+        <v>500272.8041996626</v>
       </c>
       <c r="L6" t="n">
-        <v>500944.7591019205</v>
+        <v>500272.8041996625</v>
       </c>
       <c r="M6" t="n">
-        <v>371302.4442629754</v>
+        <v>370630.489360718</v>
       </c>
       <c r="N6" t="n">
-        <v>500944.7591019201</v>
+        <v>500272.8041996621</v>
       </c>
       <c r="O6" t="n">
-        <v>500944.7591019204</v>
+        <v>500272.8041996622</v>
       </c>
       <c r="P6" t="n">
-        <v>500944.7591019206</v>
+        <v>500272.8041996624</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.1541092185948</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>138.7994718469072</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>51.97117195339679</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>111.3108523650525</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>212.597198166328</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>118.9791501480814</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>125.8816356339321</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>218.8910649275537</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>26.02192683660419</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>167.9697433236062</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>737.6365532602222</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>600.8044031364047</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>828.2380946869902</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35901,10 +35901,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>261.7876130773578</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36141,7 +36141,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>541.1040399815071</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>770.4221876370912</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36381,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36606,10 +36606,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>650.2216951689758</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36840,22 +36840,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>835.6174381814614</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>208.237802285222</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>836.7500320793066</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37086,13 +37086,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>627.7236507838235</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37554,19 +37554,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>803.4886170813098</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>600.7283960894835</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>697.5239273101583</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>681.2734615759575</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2665953.449864621</v>
+        <v>2669358.94098907</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.882709509</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.6226856612333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>52.8229012276257</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>120.4120358099647</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.5103304121437</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>38.62696934196128</v>
+        <v>186.250717003031</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>70.26541886851867</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>60.46179076613072</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>150.8400357509153</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8100533453331</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>131.8898685979129</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>57.94871329109081</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.35869565552218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.921725653454</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>85.78789945459302</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.4179473152587</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>71.79135937993097</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.7409512249758</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>191.6662024438894</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>191.4118586871688</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>201.360032484281</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>35.19569619650073</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35.88665181956718</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>18.26879610203984</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>165.7397695434777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>126.5660981224321</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9083821604497</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>90.41948680756504</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>229.6312428658947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>82.74129536798435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>983.0286321745434</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C5" t="n">
-        <v>614.0661152341316</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,7 +4585,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2426.92577311343</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V5" t="n">
-        <v>2095.862885769859</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W5" t="n">
-        <v>1743.094230499745</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X5" t="n">
-        <v>1369.628472238665</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.628472238665</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="6">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>124.9181523946257</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>124.9181523946257</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>383.841510736975</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>383.841510736975</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.712065060056</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>565.4899755672147</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>565.4899755672147</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>565.4899755672147</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629045</v>
+        <v>565.4899755672147</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5047,46 +5047,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.0030950818858</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0669121539789</v>
+        <v>766.7176053956994</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>616.6009659833636</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>468.6878724009705</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>321.7979249030601</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>154.0950882777791</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>154.0950882777791</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W13" t="n">
-        <v>998.7893082582084</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X13" t="n">
-        <v>770.7997573601911</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.0030950818858</v>
+        <v>935.6537883236062</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,49 +5275,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5348,13 +5348,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.811212990069</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="C16" t="n">
-        <v>612.8750300621621</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D16" t="n">
-        <v>462.7583906498263</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E16" t="n">
-        <v>462.7583906498263</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F16" t="n">
-        <v>462.7583906498263</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.658977898817</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.241807861856</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.252256963839</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4596778203087</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5524,43 +5524,43 @@
         <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>895.1493900894825</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>726.2132071615756</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>895.1493900894825</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>895.1493900894825</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>725.3071882816349</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>874.540472347267</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>874.540472347267</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>725.3071882816349</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1999.417367126749</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6241,22 +6241,22 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>929.5367162967025</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>708.7441371531723</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,52 +6463,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276364</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484569</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.767516148151</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.777965250134</v>
+        <v>962.7115019576914</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106604</v>
+        <v>741.9189228141613</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M32" t="n">
-        <v>1897.676284104189</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330835</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>578.4172407837245</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C34" t="n">
-        <v>409.4810578558177</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D34" t="n">
-        <v>409.4810578558177</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1752.949493898359</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.265005692472</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W34" t="n">
-        <v>1208.847835655512</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X34" t="n">
-        <v>980.8582847574944</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.0657056139643</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
@@ -6943,13 +6943,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>673.3827746590082</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C37" t="n">
-        <v>673.3827746590082</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="D37" t="n">
-        <v>523.2661352466724</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="E37" t="n">
-        <v>375.3530416642793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>375.3530416642793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
@@ -7183,13 +7183,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2996.062531649192</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3876.027181978647</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107236</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>260.9043113423046</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C40" t="n">
-        <v>260.9043113423046</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D40" t="n">
-        <v>260.9043113423046</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1285.646600628809</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1030.962112422922</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>741.5449423859611</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>741.5449423859611</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>520.752363242431</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>432.2000540015823</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7569,10 +7569,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1606.732307116217</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1352.04781891033</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1062.630648873369</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>834.6410979753522</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.848518831822</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,43 +7633,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>481.6968904858343</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C46" t="n">
-        <v>481.6968904858343</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839441</v>
@@ -7806,10 +7806,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,19 +7821,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
         <v>1542.890966501056</v>
@@ -7842,16 +7842,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.6968904858343</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>347.9535560878002</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>132.9990175570123</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>231.5010718068644</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>411.0304280899001</v>
       </c>
       <c r="M32" t="n">
-        <v>297.8289162490798</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10831,16 +10831,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>201.9664098701116</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476844</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476844</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>38.40370711874728</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>175.2259576965726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>81.45892164403482</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>43.60786094376952</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>76.82411363828139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.843702127119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>34.04345294514778</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,19 +24891,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>34.29779670186832</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>51.55114770987264</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>84.85180572133191</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>111.2382664500684</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>130.139156439461</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>120.4720686621351</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>159.6457400831808</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>71.67627119164513</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>162.5760987035354</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>58.19598621064732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191271</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>615476.7696748237</v>
+      </c>
+      <c r="F2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="G2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="H2" t="n">
         <v>615476.7696748239</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>615476.7696748241</v>
       </c>
-      <c r="G2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="H2" t="n">
-        <v>615476.7696748242</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615476.7696748237</v>
-      </c>
       <c r="J2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="K2" t="n">
         <v>615476.7696748241</v>
       </c>
       <c r="L2" t="n">
+        <v>615476.7696748241</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615476.7696748241</v>
+      </c>
+      <c r="N2" t="n">
+        <v>615476.7696748241</v>
+      </c>
+      <c r="O2" t="n">
+        <v>615476.7696748241</v>
+      </c>
+      <c r="P2" t="n">
         <v>615476.769674824</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615476.7696748243</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615476.7696748239</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918993</v>
@@ -26441,7 +26441,7 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918993</v>
@@ -26456,10 +26456,10 @@
         <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.2724902621</v>
+        <v>-219868.2724902622</v>
       </c>
       <c r="C6" t="n">
         <v>370099.6067242824</v>
       </c>
       <c r="D6" t="n">
-        <v>370099.6067242824</v>
+        <v>370099.606724282</v>
       </c>
       <c r="E6" t="n">
-        <v>-227104.6097937443</v>
+        <v>-226499.8503817124</v>
       </c>
       <c r="F6" t="n">
-        <v>500272.8041996625</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="G6" t="n">
-        <v>500272.8041996621</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="H6" t="n">
-        <v>500272.8041996626</v>
+        <v>500877.5636116945</v>
       </c>
       <c r="I6" t="n">
-        <v>500272.8041996622</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="J6" t="n">
-        <v>323849.5850070695</v>
+        <v>324454.3444191011</v>
       </c>
       <c r="K6" t="n">
-        <v>500272.8041996626</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="L6" t="n">
-        <v>500272.8041996625</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="M6" t="n">
-        <v>370630.489360718</v>
+        <v>371235.24877275</v>
       </c>
       <c r="N6" t="n">
-        <v>500272.8041996621</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="O6" t="n">
-        <v>500272.8041996622</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="P6" t="n">
-        <v>500272.8041996624</v>
+        <v>500877.5636116946</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>111.3076844110284</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>99.10841501723556</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>46.8347852886631</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>138.7994718469072</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>212.597198166328</v>
+        <v>64.97345050525834</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>97.04438339053225</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>321.4685793061311</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>218.8910649275537</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.02192683660419</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>120.2477747259151</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>886.8746719180269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>588.5891319493445</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>770.4221876370912</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>866.6205424822323</v>
       </c>
       <c r="M32" t="n">
-        <v>836.7500320793066</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37551,16 +37551,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>600.7283960894835</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359034</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359034</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
